--- a/data/trans_camb/P1418-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.2427376843060215</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6326903804877634</v>
+        <v>0.6326903804877632</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6740134217699038</v>
+        <v>-0.836779381274628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3312570484515659</v>
+        <v>-0.3346874217829496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3303144168181015</v>
+        <v>-0.3325831224272557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.396801816287336</v>
+        <v>-1.242222826568048</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.62832158724761</v>
+        <v>-1.94424453462506</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6080684993307429</v>
+        <v>-0.616195451614405</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8008242110354011</v>
+        <v>-0.7732983748125654</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7350939175087486</v>
+        <v>-0.7172767324605138</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2011731970637833</v>
+        <v>-0.2250026969584221</v>
       </c>
     </row>
     <row r="6">
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.146969351972317</v>
+        <v>1.06483096169657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.638849244635803</v>
+        <v>3.268523522126762</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4562259995631817</v>
+        <v>0.4537791944160116</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1925638593085491</v>
+        <v>-0.1925353098830173</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.556760971598806</v>
+        <v>3.646940173522055</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1212242330030373</v>
+        <v>0.1271485677644836</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1724399646810595</v>
+        <v>0.2178345530180412</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.579732564114702</v>
+        <v>2.324690709398593</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.6402609068313134</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.66882582699375</v>
+        <v>1.668825826993749</v>
       </c>
     </row>
     <row r="8">
@@ -787,7 +787,9 @@
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
-      <c r="K8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -804,7 +806,9 @@
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
-      <c r="K9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>19.36587963324308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -853,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.353517829319586</v>
+        <v>-1.415712308694294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.612937280941211</v>
+        <v>-1.560415167765299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.571606923580912</v>
+        <v>-1.471805772667343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.589904233374748</v>
+        <v>-3.462387623446471</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.219579828984777</v>
+        <v>-3.309085257518839</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.351981774314663</v>
+        <v>-3.379936070944344</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.931815534320258</v>
+        <v>-1.919271781410427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.929071418677216</v>
+        <v>-1.902128201461667</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.011754304235434</v>
+        <v>-1.944655742670085</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +892,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3082692716254742</v>
+        <v>0.2948642141341223</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.02585677864609394</v>
+        <v>-0.04153866327360341</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1883783050448761</v>
+        <v>0.2340133096328472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2608987451071728</v>
+        <v>-0.2995031790779379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1197116096763774</v>
+        <v>-0.03187839947217747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.2208273654935834</v>
+        <v>-0.2404211663781996</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.217735299510948</v>
+        <v>-0.2027512956674958</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.162154574433394</v>
+        <v>-0.1362501204164762</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2138964642391232</v>
+        <v>-0.1765810160348111</v>
       </c>
     </row>
     <row r="13">
@@ -957,32 +961,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8842259686513262</v>
+        <v>-0.8834997405468672</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8375475360702176</v>
+        <v>-0.8492169160204743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.896227972372209</v>
+        <v>-0.8995681814088731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.838401124437224</v>
+        <v>-0.851108339961774</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8335117527280052</v>
+        <v>-0.8402108063335776</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8680453856113647</v>
+        <v>-0.8717740475856867</v>
       </c>
     </row>
     <row r="15">
@@ -992,30 +992,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>1.80005343988602</v>
-      </c>
+      <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3.316548686194219</v>
+        <v>2.435119970433152</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.07206680177627978</v>
+        <v>-0.096651890795447</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1359772515010889</v>
+        <v>0.1089146128249814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02355718138875516</v>
+        <v>-0.04539733325645736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.05664287619719448</v>
+        <v>-0.1137997819038727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02725605683409577</v>
+        <v>-0.07728445593524355</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02626362615623761</v>
+        <v>-0.06701623566453144</v>
       </c>
     </row>
     <row r="16">
@@ -1065,31 +1063,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.674500250482557</v>
+        <v>-2.846623242464117</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.30327353836798</v>
+        <v>-3.27612738503667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.427415085721189</v>
+        <v>-2.429928693408626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.677186555926548</v>
+        <v>-3.749034235886469</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.042755988885025</v>
+        <v>-5.060627470321792</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.174839718275327</v>
+        <v>-4.027035457177643</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.699294269285155</v>
+        <v>-2.716512595146969</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.577843977302622</v>
+        <v>-3.8147229616767</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.687128891509659</v>
+        <v>-2.833216813169602</v>
       </c>
     </row>
     <row r="18">
@@ -1100,31 +1098,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.06974220626786047</v>
+        <v>-0.1527995082969412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.032891689419364</v>
+        <v>-1.036967317133189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4356103930652114</v>
+        <v>0.2355895618452905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.092378043489788</v>
+        <v>0.9374961817824095</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.7502376072428064</v>
+        <v>-0.7817838704862757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2688068305461055</v>
+        <v>0.1998274436919935</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07197826752894418</v>
+        <v>-0.02821065943049817</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.239656145022381</v>
+        <v>-1.245475651693786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.2084703595152516</v>
+        <v>-0.2885536280114001</v>
       </c>
     </row>
     <row r="19">
@@ -1159,7 +1157,7 @@
         <v>-0.6529741933680386</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4046005889022684</v>
+        <v>-0.4046005889022683</v>
       </c>
     </row>
     <row r="20">
@@ -1170,29 +1168,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9571841852853576</v>
+        <v>-0.9382500836362579</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.8720246701779804</v>
+        <v>-0.8874466097668814</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5646050318347416</v>
+        <v>-0.5630232032118241</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7564497896662189</v>
+        <v>-0.7372219923166209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.607974251233904</v>
+        <v>-0.6031302430765372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.604904146614248</v>
+        <v>-0.5985845626214842</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7997563081663621</v>
+        <v>-0.8017456315141184</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6049028689705156</v>
+        <v>-0.6205784598912679</v>
       </c>
     </row>
     <row r="21">
@@ -1203,29 +1201,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.323019956280002</v>
+        <v>0.5301303134998921</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>0.4709693854813902</v>
+        <v>0.4140246645201555</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2540418486126318</v>
+        <v>0.2194201168388452</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1710820340816337</v>
+        <v>-0.1653425178594815</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08011168094161773</v>
+        <v>0.06388496804709859</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04356163096309674</v>
+        <v>0.01665292734241641</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.395407983203363</v>
+        <v>-0.3845796898569389</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05383620136117902</v>
+        <v>-0.0734152704352259</v>
       </c>
     </row>
     <row r="22">
@@ -1275,31 +1273,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.892387436044057</v>
+        <v>-6.137152903876167</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.886920184887349</v>
+        <v>-6.028572825425441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.959565822879429</v>
+        <v>-4.042440597351875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.05961608137237</v>
+        <v>-7.264840281622442</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.0375499328023</v>
+        <v>-9.505429995765109</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.388987348770813</v>
+        <v>-5.121777433208839</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.340222019596051</v>
+        <v>-5.556159781194743</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.538497488044566</v>
+        <v>-6.456088047337992</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.554893461262768</v>
+        <v>-3.374114359636001</v>
       </c>
     </row>
     <row r="24">
@@ -1310,31 +1308,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.205330193316127</v>
+        <v>-1.09868924208582</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.082339093953488</v>
+        <v>-1.112504067992878</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.513684472851266</v>
+        <v>1.62564956509226</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4254185458162972</v>
+        <v>-0.3517148975547451</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.242389800557785</v>
+        <v>-3.250309115220658</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8283385605304351</v>
+        <v>1.011836959162169</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.334532306368629</v>
+        <v>-1.551307025467812</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.596171595279563</v>
+        <v>-2.646051343595009</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7051017517966331</v>
+        <v>0.5705489627920919</v>
       </c>
     </row>
     <row r="25">
@@ -1380,31 +1378,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8557856120221835</v>
+        <v>-0.8520888756192955</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8623927539168058</v>
+        <v>-0.8493780925781912</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5778077790399918</v>
+        <v>-0.5658041384830278</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5913986948359311</v>
+        <v>-0.5963625772878247</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7683888646344519</v>
+        <v>-0.7755272686172971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4425176472016153</v>
+        <v>-0.4282892672782483</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6273847324677613</v>
+        <v>-0.6267661709048123</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.746540710004668</v>
+        <v>-0.7451113622076643</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4047037126411451</v>
+        <v>-0.3864856930447642</v>
       </c>
     </row>
     <row r="27">
@@ -1415,31 +1413,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1776133630240745</v>
+        <v>-0.2346516107977476</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2663943547163891</v>
+        <v>-0.2718980915693222</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4837678262580705</v>
+        <v>0.4638911812391899</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03400262928238082</v>
+        <v>-0.02486815963396666</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.378911689838915</v>
+        <v>-0.3934662750649808</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1163126379340436</v>
+        <v>0.1429064971634949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2381752970706109</v>
+        <v>-0.2230572713648962</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4195588975006978</v>
+        <v>-0.4230966889296632</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1139760876653439</v>
+        <v>0.1008720421962625</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1467,7 @@
         <v>-2.141246661707732</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.851404401177913</v>
+        <v>-1.851404401177908</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.438996002064231</v>
@@ -1489,31 +1487,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.06924118041599</v>
+        <v>-12.23672254083349</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.58088472421079</v>
+        <v>-12.80498394723451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.89720119131575</v>
+        <v>-10.57054222342428</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.123636889475907</v>
+        <v>-2.953734058646902</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.057049820571733</v>
+        <v>-6.694920631941528</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.489360825821008</v>
+        <v>-5.762095414362749</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.515685900820463</v>
+        <v>-6.242181034195992</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.053392085964163</v>
+        <v>-7.997412307164701</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.156091209767721</v>
+        <v>-7.226535838609803</v>
       </c>
     </row>
     <row r="30">
@@ -1524,31 +1522,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.08736886385834</v>
+        <v>-5.038241527237063</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-5.211919833574388</v>
+        <v>-5.495095617950136</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.228223907109758</v>
+        <v>-3.355829413343804</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.433037226863065</v>
+        <v>5.599041659111571</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.888821772865294</v>
+        <v>2.260508399920713</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.835652009622476</v>
+        <v>1.522263346575143</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.6006476909576007</v>
+        <v>-0.3186420872393096</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.558274682322212</v>
+        <v>-2.575314614345074</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.928553335243972</v>
+        <v>-1.828840383008156</v>
       </c>
     </row>
     <row r="31">
@@ -1574,7 +1572,7 @@
         <v>-0.1799447836333184</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1555871961626465</v>
+        <v>-0.1555871961626462</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2921547836350461</v>
@@ -1594,31 +1592,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8482897191253084</v>
+        <v>-0.8469406567486637</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8707769076069007</v>
+        <v>-0.8842186068376098</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7275881891647479</v>
+        <v>-0.7272347161950078</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2314757285035339</v>
+        <v>-0.2152707805405281</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4472817943331398</v>
+        <v>-0.4628673214584969</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3851892053941315</v>
+        <v>-0.3983887300197454</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4868759606632864</v>
+        <v>-0.4751690070753492</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5990795830655891</v>
+        <v>-0.5973023833327836</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5149900704647224</v>
+        <v>-0.5175750768908948</v>
       </c>
     </row>
     <row r="33">
@@ -1629,31 +1627,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.508482676275628</v>
+        <v>-0.5111524716372926</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.5103646738994333</v>
+        <v>-0.5457630423291837</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3352377782645812</v>
+        <v>-0.3473265607673316</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5800827602262363</v>
+        <v>0.5907816719271307</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.19638111481636</v>
+        <v>0.2651172996156061</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1932978923124068</v>
+        <v>0.1573758448674654</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.0296506391290994</v>
+        <v>-0.03067075498066279</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2424463863970833</v>
+        <v>-0.246237739011419</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1832776797679455</v>
+        <v>-0.1842899396071845</v>
       </c>
     </row>
     <row r="34">
@@ -1674,7 +1672,7 @@
         <v>-8.697824349851397</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.969113424462145</v>
+        <v>-6.969113424462146</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-2.974550824195335</v>
@@ -1692,7 +1690,7 @@
         <v>-8.266000847409199</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-9.1040051052123</v>
+        <v>-9.104005105212297</v>
       </c>
     </row>
     <row r="35">
@@ -1703,31 +1701,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.825123212403177</v>
+        <v>-10.15712145204024</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-13.76411966832752</v>
+        <v>-13.66620900803271</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-12.43076414825245</v>
+        <v>-11.53774637545898</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.938286002304126</v>
+        <v>-8.810651448043814</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.83579564985912</v>
+        <v>-13.65427528042528</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-16.178367120096</v>
+        <v>-15.75075688787013</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.45283519025773</v>
+        <v>-8.68047361117085</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.35574714398487</v>
+        <v>-12.45073003774265</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-12.68567479757191</v>
+        <v>-12.83997906689575</v>
       </c>
     </row>
     <row r="36">
@@ -1738,31 +1736,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.2222934042358019</v>
+        <v>0.8819126258905882</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-4.032079343029684</v>
+        <v>-4.00367365987321</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.721073183168997</v>
+        <v>-2.861366783668533</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.692919680498095</v>
+        <v>3.165754730503222</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.766090105932876</v>
+        <v>-2.394683457327946</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-6.149421859071568</v>
+        <v>-5.715622726178655</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.2325936734631404</v>
+        <v>0.4275862838599675</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.50533351549922</v>
+        <v>-4.697124003990469</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-5.521753861064335</v>
+        <v>-5.615969822990712</v>
       </c>
     </row>
     <row r="37">
@@ -1779,7 +1777,7 @@
         <v>-0.5836996633450308</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4676881247597727</v>
+        <v>-0.4676881247597728</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1250737806086199</v>
@@ -1788,7 +1786,7 @@
         <v>-0.3250801339382624</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4511415561732517</v>
+        <v>-0.4511415561732519</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1938506773418504</v>
@@ -1797,7 +1795,7 @@
         <v>-0.4197302216953531</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.462282323903229</v>
+        <v>-0.4622823239032288</v>
       </c>
     </row>
     <row r="38">
@@ -1808,31 +1806,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5513709532332609</v>
+        <v>-0.5717676764714897</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7537005048708232</v>
+        <v>-0.761468131670107</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6478087497030027</v>
+        <v>-0.6363692689223766</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3292618166209038</v>
+        <v>-0.3361820581048346</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5054446255504398</v>
+        <v>-0.5153195863279328</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5873300531352373</v>
+        <v>-0.5796860775834725</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3865241037938757</v>
+        <v>-0.3838415443317816</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5621176251608214</v>
+        <v>-0.5548345401835634</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5689141465714389</v>
+        <v>-0.571347775103536</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1841,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04386227157446562</v>
+        <v>0.07233466980851115</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3060006037743215</v>
+        <v>-0.3295061053899143</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2183999524069734</v>
+        <v>-0.2417652597894422</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1750956033231087</v>
+        <v>0.1614206358737772</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.07694895473670896</v>
+        <v>-0.1095502801591317</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2963531266945911</v>
+        <v>-0.2780896573002866</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01583416017927976</v>
+        <v>0.03353588522083245</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.244370177945727</v>
+        <v>-0.258507015504137</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3265861874045406</v>
+        <v>-0.3271058228450228</v>
       </c>
     </row>
     <row r="40">
@@ -1906,7 +1904,7 @@
         <v>-8.115845814721018</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-5.548544178101289</v>
+        <v>-5.548544178101284</v>
       </c>
     </row>
     <row r="41">
@@ -1917,31 +1915,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.89903020687171</v>
+        <v>-11.58685750276225</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-15.56353234350745</v>
+        <v>-15.12183936380654</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.98257646889283</v>
+        <v>-12.15753699501207</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.305005535636853</v>
+        <v>-2.781656996839798</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-14.70214037661603</v>
+        <v>-14.35485805487123</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-11.74160981745605</v>
+        <v>-11.65335315496017</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.90853526380454</v>
+        <v>-4.364850161803686</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-13.23550319388008</v>
+        <v>-13.50501764427027</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-10.01046197597095</v>
+        <v>-10.15202376218589</v>
       </c>
     </row>
     <row r="42">
@@ -1952,31 +1950,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.720532631228011</v>
+        <v>3.18774067252063</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.84210597316717</v>
+        <v>-1.341119806575212</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.6988186581713638</v>
+        <v>0.1939034577568525</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.06773445109886</v>
+        <v>11.02428323866002</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.064288536524607</v>
+        <v>-0.588159283196091</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.9419862154452209</v>
+        <v>0.9901224185547201</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.206342087429468</v>
+        <v>6.131087542966426</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.974393556846336</v>
+        <v>-2.969991425333697</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.617573553320668</v>
+        <v>-1.238872453401545</v>
       </c>
     </row>
     <row r="43">
@@ -2011,7 +2009,7 @@
         <v>-0.2939500824183808</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2009642686282312</v>
+        <v>-0.200964268628231</v>
       </c>
     </row>
     <row r="44">
@@ -2022,31 +2020,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4461340699567479</v>
+        <v>-0.4560984691057523</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6065620264379498</v>
+        <v>-0.601351998869489</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4654285394264953</v>
+        <v>-0.4767738149295003</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0666235935337274</v>
+        <v>-0.08155979102454931</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4167886548392321</v>
+        <v>-0.409261834855664</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.325081982692608</v>
+        <v>-0.3212677665172289</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1311452810923445</v>
+        <v>-0.1430918563761724</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4284101608501831</v>
+        <v>-0.4359415594557549</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3254481615974781</v>
+        <v>-0.3249530839300045</v>
       </c>
     </row>
     <row r="45">
@@ -2057,31 +2055,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2136080215910177</v>
+        <v>0.1822363436971229</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09410948358088994</v>
+        <v>-0.09686943240020017</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04559119427766134</v>
+        <v>0.01467087813005975</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4299267566532233</v>
+        <v>0.4013479955284421</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03609460407218178</v>
+        <v>-0.02199067880244986</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02930299812060526</v>
+        <v>0.02847759867311588</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2879040184276596</v>
+        <v>0.2405740157577841</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.111140948821455</v>
+        <v>-0.1188685673754135</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.06043166118764322</v>
+        <v>-0.0483398174850441</v>
       </c>
     </row>
     <row r="46">
@@ -2120,7 +2118,7 @@
         <v>-3.020901852300623</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.249010297613724</v>
+        <v>-1.249010297613723</v>
       </c>
     </row>
     <row r="47">
@@ -2131,31 +2129,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.348296140183703</v>
+        <v>-3.443848751029229</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.998319149314496</v>
+        <v>-4.055634885484614</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.204608841488507</v>
+        <v>-2.32009280785612</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.879779217664258</v>
+        <v>-1.875651207289579</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.431869602491739</v>
+        <v>-4.40222720825848</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.639625558088571</v>
+        <v>-2.493032367922682</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.25518511275534</v>
+        <v>-2.272029951880918</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.9361955952099</v>
+        <v>-3.869778901549504</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.031273221024965</v>
+        <v>-2.052547492049599</v>
       </c>
     </row>
     <row r="48">
@@ -2166,31 +2164,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.376116651769798</v>
+        <v>-1.418375806903593</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.135164992883282</v>
+        <v>-2.198219841301793</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.1525835336452309</v>
+        <v>-0.2612349683223202</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.101668265324939</v>
+        <v>1.041368291794716</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.540630726303854</v>
+        <v>-1.624479433434702</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.1093506348030189</v>
+        <v>-0.0199801987536034</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.3869663959621317</v>
+        <v>-0.4029330486185508</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.197367613563623</v>
+        <v>-2.183962113169826</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.452300987029956</v>
+        <v>-0.4252800824681969</v>
       </c>
     </row>
     <row r="49">
@@ -2225,7 +2223,7 @@
         <v>-0.3850058294217079</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.159183008618041</v>
+        <v>-0.1591830086180408</v>
       </c>
     </row>
     <row r="50">
@@ -2236,31 +2234,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5539507751202574</v>
+        <v>-0.5628530812051477</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6658760606593997</v>
+        <v>-0.666889986454362</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3660655634735325</v>
+        <v>-0.3683317725057837</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.173658491706454</v>
+        <v>-0.173425368232983</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4106780015448092</v>
+        <v>-0.4034667622604546</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2357430706868109</v>
+        <v>-0.2294606275727928</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2717284776127269</v>
+        <v>-0.2735706144167256</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.473572781279174</v>
+        <v>-0.4623677638810587</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2421712038850892</v>
+        <v>-0.2450237750975825</v>
       </c>
     </row>
     <row r="51">
@@ -2271,31 +2269,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2751089437240923</v>
+        <v>-0.2763819705203422</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.435455084199848</v>
+        <v>-0.4290575996992695</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.02708179552065261</v>
+        <v>-0.04272925131881065</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1198390965183224</v>
+        <v>0.1119038255278779</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1675297953393914</v>
+        <v>-0.1707066627816979</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01091997457928725</v>
+        <v>-0.001987196440002903</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.05038120799080123</v>
+        <v>-0.0545282608425828</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2965162630405281</v>
+        <v>-0.2953807658041034</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.05612066539089773</v>
+        <v>-0.0601350733501304</v>
       </c>
     </row>
     <row r="52">
